--- a/data and procedures/Post-Genesis Transaction Block.xlsx
+++ b/data and procedures/Post-Genesis Transaction Block.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmcnierney/Oneiro/go/src/github.com/oneiro-ndev/genesis/data and procedures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentquirk/go/src/github.com/oneiro-ndev/genesis/data and procedures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C9D25A-7F94-6B43-A0D7-2ED8A0CA7C1C}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A1C05F-0455-764E-8594-41EA4092CC36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="37560" windowHeight="23540" xr2:uid="{2961A5D2-C43F-3547-B320-801D3292EE2D}"/>
+    <workbookView xWindow="-48740" yWindow="-4800" windowWidth="39560" windowHeight="23260" xr2:uid="{2961A5D2-C43F-3547-B320-801D3292EE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>Post-Genesis Transaction Block</t>
   </si>
@@ -402,13 +399,46 @@
   </si>
   <si>
     <t>6 of 9 BPC Operations</t>
+  </si>
+  <si>
+    <t>txtype</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>validation_keys</t>
+  </si>
+  <si>
+    <t>validation_url</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +476,14 @@
       <name val="Andale Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -464,10 +502,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,8 +535,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -810,1266 +853,1737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB196B3-709C-354E-AFD9-15A4A4B5742A}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.33203125" customWidth="1"/>
-    <col min="5" max="5" width="147.5" customWidth="1"/>
-    <col min="6" max="6" width="91.5" customWidth="1"/>
-    <col min="7" max="7" width="166.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="7" customWidth="1"/>
+    <col min="4" max="7" width="19.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="91.33203125" customWidth="1"/>
+    <col min="10" max="10" width="147.5" customWidth="1"/>
+    <col min="11" max="11" width="91.5" customWidth="1"/>
+    <col min="12" max="12" width="166.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="K2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B6" s="8" t="str">
+        <f>$A$4</f>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="L6" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="8" t="str">
+        <f>$A$4</f>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="8" t="str">
+        <f>$A$4</f>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11" t="s">
+    <row r="15" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B16" s="8" t="str">
+        <f>$A$4</f>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11" t="s">
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B19" s="8" t="str">
+        <f>$A$4</f>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11" t="s">
+    <row r="20" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="s">
+    <row r="21" spans="1:12" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B22" s="8" t="str">
+        <f t="shared" ref="B22:B26" si="0">$A$4</f>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="I23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C24" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="J24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="K24" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ClaimAccount</v>
+      </c>
+      <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="7">
-        <f>B8+1</f>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="7">
+        <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="7">
-        <f>B15+1</f>
+      <c r="B34" t="str">
+        <f>$A$32</f>
+        <v>Delegate</v>
+      </c>
+      <c r="C34" s="7">
+        <f>C16+1</f>
         <v>2</v>
       </c>
-      <c r="C33" s="10" t="str">
-        <f>C15</f>
+      <c r="H34" s="10" t="str">
+        <f>H16</f>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="D33" s="10" t="str">
-        <f>C21</f>
+      <c r="I34" s="10" t="str">
+        <f>H22</f>
         <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
       </c>
-      <c r="E33" t="s">
+      <c r="J34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="7">
-        <f>B18+1</f>
+      <c r="B35" t="str">
+        <f>$A$32</f>
+        <v>Delegate</v>
+      </c>
+      <c r="C35" s="7">
+        <f>C19+1</f>
         <v>2</v>
       </c>
-      <c r="C34" s="10" t="str">
-        <f>C18</f>
+      <c r="H35" s="10" t="str">
+        <f>H19</f>
         <v>ndmmw2cwhhgcgk9edp5tiieqab3pq7uxdic2wabzx49twwxh</v>
       </c>
-      <c r="D34" s="10" t="str">
-        <f>C21</f>
+      <c r="I35" s="10" t="str">
+        <f>H22</f>
         <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
       </c>
-      <c r="E34" t="s">
+      <c r="J35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="7">
-        <f>B21+1</f>
+      <c r="B39" t="str">
+        <f t="shared" ref="B39:B43" si="1">$A$32</f>
+        <v>Delegate</v>
+      </c>
+      <c r="C39" s="7">
+        <f>C22+1</f>
         <v>2</v>
       </c>
-      <c r="C38" s="10" t="str">
-        <f>C21</f>
+      <c r="H39" s="10" t="str">
+        <f>H22</f>
         <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
       </c>
-      <c r="D38" s="10" t="str">
-        <f>C38</f>
+      <c r="I39" s="10" t="str">
+        <f>H39</f>
         <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="J39" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="7">
-        <f>B22+1</f>
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>Delegate</v>
+      </c>
+      <c r="C40" s="7">
+        <f>C23+1</f>
         <v>2</v>
       </c>
-      <c r="C39" s="10" t="str">
-        <f>C22</f>
+      <c r="H40" s="10" t="str">
+        <f>H23</f>
         <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
       </c>
-      <c r="D39" s="10" t="str">
-        <f>C39</f>
+      <c r="I40" s="10" t="str">
+        <f>H40</f>
         <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="J40" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="7">
-        <f>B23+1</f>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>Delegate</v>
+      </c>
+      <c r="C41" s="7">
+        <f>C24+1</f>
         <v>2</v>
       </c>
-      <c r="C40" s="10" t="str">
-        <f>C23</f>
+      <c r="H41" s="10" t="str">
+        <f>H24</f>
         <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
       </c>
-      <c r="D40" s="10" t="str">
-        <f>C40</f>
+      <c r="I41" s="10" t="str">
+        <f>H41</f>
         <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="J41" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="7">
-        <f>B24+1</f>
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>Delegate</v>
+      </c>
+      <c r="C42" s="7">
+        <f>C25+1</f>
         <v>2</v>
       </c>
-      <c r="C41" s="10" t="str">
-        <f>C24</f>
+      <c r="H42" s="10" t="str">
+        <f>H25</f>
         <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
       </c>
-      <c r="D41" s="10" t="str">
-        <f>C41</f>
+      <c r="I42" s="10" t="str">
+        <f>H42</f>
         <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="J42" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
-        <f>B25+1</f>
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>Delegate</v>
+      </c>
+      <c r="C43" s="7">
+        <f>C26+1</f>
         <v>2</v>
       </c>
-      <c r="C42" s="10" t="str">
-        <f>C25</f>
+      <c r="H43" s="10" t="str">
+        <f>H26</f>
         <v>ndaekyty73hd56gynsswuj5q9em68tp6ed5v7tpft872hvuc</v>
       </c>
-      <c r="D42" s="10" t="str">
-        <f>C42</f>
+      <c r="I43" s="10" t="str">
+        <f>H43</f>
         <v>ndaekyty73hd56gynsswuj5q9em68tp6ed5v7tpft872hvuc</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="J43" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="1" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="2" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="7">
-        <f>B38+1</f>
+      <c r="B47" t="str">
+        <f>$A$45</f>
+        <v>CreditEAI</v>
+      </c>
+      <c r="C47" s="7">
+        <f>C39+1</f>
         <v>3</v>
       </c>
-      <c r="C46" s="10" t="str">
-        <f>C21</f>
+      <c r="H47" s="10" t="str">
+        <f>H22</f>
         <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="I47" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="7">
-        <f>B39+1</f>
+      <c r="B48" t="str">
+        <f t="shared" ref="B48:B51" si="2">$A$45</f>
+        <v>CreditEAI</v>
+      </c>
+      <c r="C48" s="7">
+        <f>C40+1</f>
         <v>3</v>
       </c>
-      <c r="C47" s="10" t="str">
-        <f>C22</f>
+      <c r="H48" s="10" t="str">
+        <f>H23</f>
         <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="I48" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="7">
-        <f>B40+1</f>
+      <c r="B49" t="str">
+        <f t="shared" si="2"/>
+        <v>CreditEAI</v>
+      </c>
+      <c r="C49" s="7">
+        <f>C41+1</f>
         <v>3</v>
       </c>
-      <c r="C48" s="10" t="str">
-        <f>C23</f>
+      <c r="H49" s="10" t="str">
+        <f>H24</f>
         <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="I49" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="7">
-        <f>B41+1</f>
+      <c r="B50" t="str">
+        <f t="shared" si="2"/>
+        <v>CreditEAI</v>
+      </c>
+      <c r="C50" s="7">
+        <f>C42+1</f>
         <v>3</v>
       </c>
-      <c r="C49" s="10" t="str">
-        <f>C24</f>
+      <c r="H50" s="10" t="str">
+        <f>H25</f>
         <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="I50" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="7">
-        <f>B42+1</f>
+      <c r="B51" t="str">
+        <f t="shared" si="2"/>
+        <v>CreditEAI</v>
+      </c>
+      <c r="C51" s="7">
+        <f>C43+1</f>
         <v>3</v>
       </c>
-      <c r="C50" s="10" t="str">
-        <f>C25</f>
+      <c r="H51" s="10" t="str">
+        <f>H26</f>
         <v>ndaekyty73hd56gynsswuj5q9em68tp6ed5v7tpft872hvuc</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="I51" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="7">
-        <f>B33+1</f>
-        <v>3</v>
-      </c>
-      <c r="C54" s="10" t="str">
-        <f>C$15</f>
-        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
-      </c>
-      <c r="D54" s="10" t="str">
-        <f>C21</f>
-        <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
-      </c>
-      <c r="E54">
-        <v>1050</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="7">
-        <f>B54+1</f>
-        <v>4</v>
-      </c>
-      <c r="C55" s="10" t="str">
-        <f>C$15</f>
+      <c r="B55" t="str">
+        <f>$A$53</f>
+        <v>Transfer</v>
+      </c>
+      <c r="C55" s="7">
+        <f>C34+1</f>
+        <v>3</v>
+      </c>
+      <c r="D55" s="7">
+        <f>J55</f>
+        <v>1050</v>
+      </c>
+      <c r="E55" s="7" t="str">
+        <f>H55</f>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="D55" s="10" t="str">
-        <f>C22</f>
-        <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
-      </c>
-      <c r="E55">
-        <f>E54</f>
+      <c r="F55" s="7" t="str">
+        <f>I55</f>
+        <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
+      </c>
+      <c r="H55" s="10" t="str">
+        <f>H$16</f>
+        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
+      </c>
+      <c r="I55" s="10" t="str">
+        <f>H22</f>
+        <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
+      </c>
+      <c r="J55">
         <v>1050</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="K55" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="7">
-        <f>B55+1</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="10" t="str">
-        <f>C$15</f>
+      <c r="B56" t="str">
+        <f t="shared" ref="B56:B59" si="3">$A$53</f>
+        <v>Transfer</v>
+      </c>
+      <c r="C56" s="7">
+        <f>C55+1</f>
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" ref="D56:D59" si="4">J56</f>
+        <v>1050</v>
+      </c>
+      <c r="E56" s="7" t="str">
+        <f t="shared" ref="E56:E59" si="5">H56</f>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="D56" s="10" t="str">
-        <f>C23</f>
-        <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
-      </c>
-      <c r="E56">
-        <f>E55</f>
+      <c r="F56" s="7" t="str">
+        <f t="shared" ref="F56:F59" si="6">I56</f>
+        <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
+      </c>
+      <c r="H56" s="10" t="str">
+        <f>H$16</f>
+        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
+      </c>
+      <c r="I56" s="10" t="str">
+        <f>H23</f>
+        <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
+      </c>
+      <c r="J56">
+        <f>J55</f>
         <v>1050</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="7">
-        <f>B56+1</f>
-        <v>6</v>
-      </c>
-      <c r="C57" s="10" t="str">
-        <f>C$15</f>
+      <c r="B57" t="str">
+        <f t="shared" si="3"/>
+        <v>Transfer</v>
+      </c>
+      <c r="C57" s="7">
+        <f>C56+1</f>
+        <v>5</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="E57" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="D57" s="10" t="str">
-        <f>C24</f>
-        <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
-      </c>
-      <c r="E57">
-        <f>E56</f>
+      <c r="F57" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
+      </c>
+      <c r="H57" s="10" t="str">
+        <f>H$16</f>
+        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
+      </c>
+      <c r="I57" s="10" t="str">
+        <f>H24</f>
+        <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
+      </c>
+      <c r="J57">
+        <f>J56</f>
         <v>1050</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="K57" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="7">
-        <f>B57+1</f>
+      <c r="B58" t="str">
+        <f t="shared" si="3"/>
+        <v>Transfer</v>
+      </c>
+      <c r="C58" s="7">
+        <f>C57+1</f>
+        <v>6</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="E58" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
+      </c>
+      <c r="F58" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
+      </c>
+      <c r="H58" s="10" t="str">
+        <f>H$16</f>
+        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
+      </c>
+      <c r="I58" s="10" t="str">
+        <f>H25</f>
+        <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
+      </c>
+      <c r="J58">
+        <f>J57</f>
+        <v>1050</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="3"/>
+        <v>Transfer</v>
+      </c>
+      <c r="C59" s="7">
+        <f>C58+1</f>
         <v>7</v>
       </c>
-      <c r="C58" s="10" t="str">
-        <f>C$15</f>
+      <c r="D59" s="7">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="E59" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="D58" s="10" t="str">
-        <f>C25</f>
+      <c r="F59" s="7" t="str">
+        <f t="shared" si="6"/>
         <v>ndaekyty73hd56gynsswuj5q9em68tp6ed5v7tpft872hvuc</v>
       </c>
-      <c r="E58">
-        <f>E57</f>
+      <c r="H59" s="10" t="str">
+        <f>H$16</f>
+        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
+      </c>
+      <c r="I59" s="10" t="str">
+        <f>H26</f>
+        <v>ndaekyty73hd56gynsswuj5q9em68tp6ed5v7tpft872hvuc</v>
+      </c>
+      <c r="J59">
+        <f>J58</f>
         <v>1050</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="K59" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
-        <f>A21</f>
-        <v>ndev Node 0</v>
-      </c>
-      <c r="B62" s="7">
-        <f>B46+1</f>
-        <v>4</v>
-      </c>
-      <c r="C62" s="10" t="str">
-        <f>C21</f>
-        <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
-      </c>
-      <c r="D62" s="10" t="str">
-        <f>C$15</f>
-        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>A22</f>
-        <v>ndev Node 1</v>
-      </c>
-      <c r="B63" s="7">
-        <f>B47+1</f>
+        <v>ndev Node 0</v>
+      </c>
+      <c r="B63" t="str">
+        <f>$A$61</f>
+        <v>Lock</v>
+      </c>
+      <c r="C63" s="7">
+        <f>C47+1</f>
         <v>4</v>
       </c>
-      <c r="C63" s="10" t="str">
-        <f>C22</f>
-        <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
-      </c>
-      <c r="D63" s="10" t="str">
-        <f>C$15</f>
+      <c r="G63" s="7" t="str">
+        <f>J63</f>
+        <v>1m</v>
+      </c>
+      <c r="H63" s="10" t="str">
+        <f>H22</f>
+        <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
+      </c>
+      <c r="I63" s="10" t="str">
+        <f>H$16</f>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="E63" s="10" t="str">
-        <f>E62</f>
-        <v>1m</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="J63" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f>A23</f>
-        <v>ndev Node 2</v>
-      </c>
-      <c r="B64" s="7">
-        <f>B48+1</f>
+        <v>ndev Node 1</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" ref="B64:B67" si="7">$A$61</f>
+        <v>Lock</v>
+      </c>
+      <c r="C64" s="7">
+        <f>C48+1</f>
         <v>4</v>
       </c>
-      <c r="C64" s="10" t="str">
-        <f>C23</f>
-        <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
-      </c>
-      <c r="D64" s="10" t="str">
-        <f>C$15</f>
+      <c r="G64" s="7" t="str">
+        <f t="shared" ref="G64:G67" si="8">J64</f>
+        <v>1m</v>
+      </c>
+      <c r="H64" s="10" t="str">
+        <f>H23</f>
+        <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
+      </c>
+      <c r="I64" s="10" t="str">
+        <f>H$16</f>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="E64" s="10" t="str">
-        <f>E63</f>
+      <c r="J64" s="10" t="str">
+        <f>J63</f>
         <v>1m</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="K64" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f>A24</f>
-        <v>ndev Node 3</v>
-      </c>
-      <c r="B65" s="7">
-        <f>B49+1</f>
+        <v>ndev Node 2</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="7"/>
+        <v>Lock</v>
+      </c>
+      <c r="C65" s="7">
+        <f>C49+1</f>
         <v>4</v>
       </c>
-      <c r="C65" s="10" t="str">
-        <f>C24</f>
-        <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
-      </c>
-      <c r="D65" s="10" t="str">
-        <f>C$15</f>
+      <c r="G65" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>1m</v>
+      </c>
+      <c r="H65" s="10" t="str">
+        <f>H24</f>
+        <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
+      </c>
+      <c r="I65" s="10" t="str">
+        <f>H$16</f>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="E65" s="10" t="str">
-        <f>E64</f>
+      <c r="J65" s="10" t="str">
+        <f>J64</f>
         <v>1m</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="K65" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>A25</f>
+        <v>ndev Node 3</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="7"/>
+        <v>Lock</v>
+      </c>
+      <c r="C66" s="7">
+        <f>C50+1</f>
+        <v>4</v>
+      </c>
+      <c r="G66" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>1m</v>
+      </c>
+      <c r="H66" s="10" t="str">
+        <f>H25</f>
+        <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
+      </c>
+      <c r="I66" s="10" t="str">
+        <f>H$16</f>
+        <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
+      </c>
+      <c r="J66" s="10" t="str">
+        <f>J65</f>
+        <v>1m</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>A26</f>
         <v>ndev Node 4</v>
       </c>
-      <c r="B66" s="7">
-        <f>B50+1</f>
+      <c r="B67" t="str">
+        <f t="shared" si="7"/>
+        <v>Lock</v>
+      </c>
+      <c r="C67" s="7">
+        <f>C51+1</f>
         <v>4</v>
       </c>
-      <c r="C66" s="10" t="str">
-        <f>C25</f>
+      <c r="G67" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>1m</v>
+      </c>
+      <c r="H67" s="10" t="str">
+        <f>H26</f>
         <v>ndaekyty73hd56gynsswuj5q9em68tp6ed5v7tpft872hvuc</v>
       </c>
-      <c r="D66" s="10" t="str">
-        <f>C$15</f>
+      <c r="I67" s="10" t="str">
+        <f>H$16</f>
         <v>ndaea8w9gz84ncxrytepzxgkg9ymi4k7c9p427i6b57xw3r4</v>
       </c>
-      <c r="E66" s="10" t="str">
-        <f>E65</f>
+      <c r="J67" s="10" t="str">
+        <f>J66</f>
         <v>1m</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="K67" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
-        <f>A21</f>
-        <v>ndev Node 0</v>
-      </c>
-      <c r="B70" s="7">
-        <f>B62+1</f>
-        <v>5</v>
-      </c>
-      <c r="C70" s="10" t="str">
-        <f>C21</f>
-        <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>A22</f>
-        <v>ndev Node 1</v>
-      </c>
-      <c r="B71" s="7">
-        <f>B63+1</f>
+        <v>ndev Node 0</v>
+      </c>
+      <c r="B71" t="str">
+        <f>$A$69</f>
+        <v>Register</v>
+      </c>
+      <c r="C71" s="7">
+        <f>C63+1</f>
         <v>5</v>
       </c>
-      <c r="C71" s="10" t="str">
-        <f>C22</f>
-        <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="H71" s="10" t="str">
+        <f>H22</f>
+        <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
+      </c>
+      <c r="J71" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f>A23</f>
-        <v>ndev Node 2</v>
-      </c>
-      <c r="B72" s="7">
-        <f>B64+1</f>
+        <v>ndev Node 1</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" ref="B72:B75" si="9">$A$69</f>
+        <v>Register</v>
+      </c>
+      <c r="C72" s="7">
+        <f>C64+1</f>
         <v>5</v>
       </c>
-      <c r="C72" s="10" t="str">
-        <f>C23</f>
-        <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="H72" s="10" t="str">
+        <f>H23</f>
+        <v>ndaq3nqhez3vvxn8rx4m6s6n3kv7k9js8i3xw8hqnwvi2ete</v>
+      </c>
+      <c r="J72" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f>A24</f>
-        <v>ndev Node 3</v>
-      </c>
-      <c r="B73" s="7">
-        <f>B65+1</f>
+        <v>ndev Node 2</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="9"/>
+        <v>Register</v>
+      </c>
+      <c r="C73" s="7">
+        <f>C65+1</f>
         <v>5</v>
       </c>
-      <c r="C73" s="10" t="str">
-        <f>C24</f>
-        <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
-      </c>
-      <c r="E73" s="10" t="s">
+      <c r="H73" s="10" t="str">
+        <f>H24</f>
+        <v>ndahnsxr8zh7r6u685ka865wz77wb78xcn45rgskpeyiwuza</v>
+      </c>
+      <c r="J73" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>A25</f>
+        <v>ndev Node 3</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="9"/>
+        <v>Register</v>
+      </c>
+      <c r="C74" s="7">
+        <f>C66+1</f>
+        <v>5</v>
+      </c>
+      <c r="H74" s="10" t="str">
+        <f>H25</f>
+        <v>ndam75fnjn7cdues7ivi7ccfq8f534quieaccqibrvuzhqxa</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>A26</f>
         <v>ndev Node 4</v>
       </c>
-      <c r="B74" s="7">
-        <f>B66+1</f>
+      <c r="B75" t="str">
+        <f t="shared" si="9"/>
+        <v>Register</v>
+      </c>
+      <c r="C75" s="7">
+        <f>C67+1</f>
         <v>5</v>
       </c>
-      <c r="C74" s="10" t="str">
-        <f>C25</f>
+      <c r="H75" s="10" t="str">
+        <f>H26</f>
         <v>ndaekyty73hd56gynsswuj5q9em68tp6ed5v7tpft872hvuc</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="J75" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="7">
-        <f>B12+1</f>
+      <c r="B79" t="str">
+        <f>A77</f>
+        <v>NominateNodeRewards</v>
+      </c>
+      <c r="C79" s="7">
+        <f>C13+1</f>
         <v>2</v>
       </c>
-      <c r="C78" s="10" t="str">
-        <f>C12</f>
+      <c r="H79" s="10" t="str">
+        <f>H13</f>
         <v>ndnf9ffbzhyf8mk7z5vvqc4quzz5i2exp5zgsmhyhc9cuwr4</v>
       </c>
-      <c r="D78" s="10" t="str">
-        <f>C21</f>
+      <c r="I79" s="10" t="str">
+        <f>H22</f>
         <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="J79" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="7">
-        <f>B70+1</f>
+      <c r="B83" t="str">
+        <f>A81</f>
+        <v>ClaimReward</v>
+      </c>
+      <c r="C83" s="7">
+        <f>C71+1</f>
         <v>6</v>
       </c>
-      <c r="C82" s="10" t="str">
-        <f>C21</f>
+      <c r="H83" s="10" t="str">
+        <f>H22</f>
         <v>ndarw5i7rmqtqstw4mtnchmfvxnrq4k3e2ytsyvsc7nxt2y7</v>
       </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10" t="s">
+      <c r="I83" s="10"/>
+      <c r="J83" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="7">
-        <f>B5+1</f>
+      <c r="B87" t="str">
+        <f>A85</f>
+        <v>SidechainTx</v>
+      </c>
+      <c r="C87" s="7">
+        <f>C6+1</f>
         <v>2</v>
       </c>
-      <c r="C86" s="10" t="str">
-        <f>C5</f>
+      <c r="H87" s="10" t="str">
+        <f>H6</f>
         <v>ndbmgby86qw9bds9f8wrzut5zrbxuehum5kvgz9sns9hgknh</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="G86" s="10" t="s">
+      <c r="I87" s="10"/>
+      <c r="L87" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <f>D5</f>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>I6</f>
         <v>npuba8jadtbbeaxuga2i8sc3t9hr6t8c9wnv6z6zxi693w3xthiurq6mnyxye2zd6iyh3ppy9ywp</v>
       </c>
-      <c r="B90" s="7">
+      <c r="C91" s="7">
         <v>1</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="H91" s="10" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L6" r:id="rId1" xr:uid="{94D4EDBE-AB49-0B4F-96F4-68055A50E2C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
